--- a/数据整理/stocks/A股/深证主板/002920-德赛西威.xlsx
+++ b/数据整理/stocks/A股/深证主板/002920-德赛西威.xlsx
@@ -451,659 +451,889 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>005962</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2534</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2390</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6742</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>530001</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>建信恒久价值混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>94.53</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.21</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3932</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2346</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005963</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1792</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1198</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1198</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>040015</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>华安动态灵活配置混合</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>79.58</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>3.52</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>202019</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方策略优化混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001573</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方互联网+灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>550002</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>信诚精萃成长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>88.24</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001781</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信现代服务业股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160425</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华安创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>94.87</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000826</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发中证百度百发策略100指数A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000827</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发中证百度百发策略100指数E</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005962</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>宝盈人工智能主题股票A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>92.43</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>4.10</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005963</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>宝盈人工智能主题股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>92.43</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>202019</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>南方策略优化混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>550001</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>信诚四季红混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>86.26</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005607</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华宝中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005608</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华宝中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001573</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>南方互联网+灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>87.89</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001795</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>上投摩根文体休闲灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>78.29</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>163411</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>兴全精选混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>89.41</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001781</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>建信现代服务业股票</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008124</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中邮中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002564</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>新沃通盈灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>93.73</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>590007</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中邮中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005412</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>金信民长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>81.07</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>9.14</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005413</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>金信民长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>81.07</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>9.14</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>006209</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中信保诚新蓝筹灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>89.57</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1113,7 +1343,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,15 +1364,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1164,15 +1404,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>54.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>89.46</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.55</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0181</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>570008</t>
+          <t>163411</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>诺德周期策略混合</t>
+          <t>兴全精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.74</t>
+          <t>52.80</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.58</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5206</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004745</t>
+          <t>009491</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长盛创新驱动灵活配置混合</t>
+          <t>宝盈创新驱动股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.84</t>
+          <t>23.86</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3195</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002482</t>
+          <t>570008</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>宝盈互联网沪港深灵活配置混合</t>
+          <t>诺德周期策略混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.06</t>
+          <t>16.91</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1127</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004930</t>
+          <t>005962</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华润元大价值优选混合A</t>
+          <t>宝盈人工智能主题股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>79.93</t>
+          <t>15.08</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8641</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004931</t>
+          <t>000698</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华润元大价值优选混合C</t>
+          <t>宝盈科技30灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>79.93</t>
+          <t>13.02</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7838</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005029</t>
+          <t>000996</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中银产业精选混合</t>
+          <t>中银新动力股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.58</t>
+          <t>12.28</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7405</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>213006</t>
+          <t>002482</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>宝盈核心优势灵活配置混合A</t>
+          <t>宝盈互联网沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>79.08</t>
+          <t>10.07</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5649</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000241</t>
+          <t>550002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>宝盈核心优势灵活配置混合C</t>
+          <t>信诚精萃成长混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>79.08</t>
+          <t>15.77</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4715</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1406,25 +1736,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009877</t>
+          <t>213006</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中银内核驱动股票</t>
+          <t>宝盈核心优势灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92.65</t>
+          <t>10.99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>79.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3945</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009882</t>
+          <t>001075</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华润元大核心动力混合A</t>
+          <t>宝盈转型动力灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>75.36</t>
+          <t>7.72</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8.91</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3520</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009883</t>
+          <t>009877</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华润元大核心动力混合C</t>
+          <t>中银内核驱动股票</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>75.36</t>
+          <t>5.99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>8.91</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3426</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1490,25 +1850,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>000522</t>
+          <t>004745</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华润元大信息传媒科技混合</t>
+          <t>长盛创新驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>79.16</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3418</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010128</t>
+          <t>000939</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>宝盈发展新动能股票A</t>
+          <t>中银研究精选灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>92.50</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2572</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010129</t>
+          <t>005963</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>宝盈发展新动能股票C</t>
+          <t>宝盈人工智能主题股票C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>92.50</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2504</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>000698</t>
+          <t>009492</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>宝盈科技30灵活配置混合</t>
+          <t>宝盈创新驱动股票C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>89.77</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2273</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>000939</t>
+          <t>160805</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中银研究精选灵活配置混合</t>
+          <t>长盛同智优势成长混合(LOF)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>84.55</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5.74</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010375</t>
+          <t>010128</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>国金鑫悦经济新动能混合A</t>
+          <t>宝盈发展新动能股票A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>77.48</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>6</v>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1667</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>010376</t>
+          <t>000522</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>国金鑫悦经济新动能混合C</t>
+          <t>华润元大信息传媒科技混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>77.48</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>6</v>
+          <t>79.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1198</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>000996</t>
+          <t>010375</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中银新动力股票</t>
+          <t>国金鑫悦经济新动能混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>88.50</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6.03</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
+          <t>77.48</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>001075</t>
+          <t>010570</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>宝盈转型动力灵活配置混合</t>
+          <t>新沃创新领航混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
+          <t>73.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1742,25 +2192,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>010570</t>
+          <t>010571</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>新沃创新领航混合A</t>
+          <t>新沃创新领航混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>73.77</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>3.68</t>
         </is>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1770,25 +2230,35 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>010571</t>
+          <t>009882</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>新沃创新领航混合C</t>
+          <t>华润元大核心动力混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>73.77</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>001734</t>
+          <t>005029</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>广发百发大数据策略成长灵活配置混合A</t>
+          <t>中银产业精选混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>86.65</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>9</v>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>001735</t>
+          <t>004930</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>广发百发大数据策略成长灵活配置混合E</t>
+          <t>华润元大价值优选混合A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>86.65</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>9</v>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>001795</t>
+          <t>010129</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>上投摩根文体休闲灵活配置混合</t>
+          <t>宝盈发展新动能股票C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>76.04</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>6</v>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>550002</t>
+          <t>001734</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>信诚精萃成长混合</t>
+          <t>广发百发大数据策略成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>82.34</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>7</v>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -1910,25 +2420,35 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>160805</t>
+          <t>001735</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>长盛同智优势成长混合(LOF)</t>
+          <t>广发百发大数据策略成长灵活配置混合E</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>002180</t>
+          <t>010376</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中银移动互联灵活配置混合</t>
+          <t>国金鑫悦经济新动能混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>83.32</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>6.03</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>8</v>
+          <t>77.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>163411</t>
+          <t>009883</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>兴全精选混合</t>
+          <t>华润元大核心动力混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>90.64</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>6</v>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>002564</t>
+          <t>004931</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>新沃通盈灵活配置混合</t>
+          <t>华润元大价值优选混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>92.62</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>9</v>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>005962</t>
+          <t>002180</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>宝盈人工智能主题股票A</t>
+          <t>中银移动互联灵活配置混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>6</v>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -2050,25 +2610,35 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>005963</t>
+          <t>001795</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>宝盈人工智能主题股票C</t>
+          <t>上投摩根文体休闲灵活配置混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
+          <t>76.04</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>009491</t>
+          <t>000241</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>宝盈创新驱动股票A</t>
+          <t>宝盈核心优势灵活配置混合C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>91.08</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>6</v>
+          <t>79.08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -2106,26 +2686,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>009492</t>
+          <t>002564</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>宝盈创新驱动股票C</t>
+          <t>新沃通盈灵活配置混合</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>91.08</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>6</v>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002920-德赛西威.xlsx
+++ b/数据整理/stocks/A股/深证主板/002920-德赛西威.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2721,4 +2722,3360 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>570001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺德价值优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0158</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010347</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银汇理策略收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>78.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>59.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2511</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1974</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>163418</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1887</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>51.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7425</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009491</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5736</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>570008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺德周期策略混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2973</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>34.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2100</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000996</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银新动力股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9584</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005962</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9450</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000698</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈科技30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9293</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010383</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9237</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002482</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈互联网沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7839</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>28.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7046</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6612</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6483</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5766</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5609</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009877</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3850</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3451</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000939</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3408</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3305</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004745</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长盛创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>95.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3180</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2845</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009492</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2793</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005963</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2712</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2520</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2481</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>160805</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长盛同智优势成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2197</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010824</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2099</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1783</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010128</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1714</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1544</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011170</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>62.41</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1229</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>78.88</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010944</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010825</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005029</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中银产业精选混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>71.70</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011171</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>62.41</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>45.43</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>310318</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010129</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010384</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001734</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001735</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007804</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008437</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>65.58</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005418</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>申万菱信量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>008438</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>65.58</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010945</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010670</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002920-德赛西威.xlsx
+++ b/数据整理/stocks/A股/深证主板/002920-德赛西威.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6057,7 +6058,6 @@
           <t>兴全合兴两年封闭运作混合（LOF）C</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
           <t>90.01</t>
@@ -6073,6 +6073,2484 @@
       </c>
       <c r="H88" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163418</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>76.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7184</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010347</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银汇理策略收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>73.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6723</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>570001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺德价值优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>50.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.5078</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>51.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5647</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1214</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>36.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5131</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>570008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺德周期策略混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9516</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9241</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7739</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000698</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈科技30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7718</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7568</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009491</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7513</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000996</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银新动力股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6891</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6620</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005962</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5734</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000924</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5444</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4950</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002482</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>宝盈互联网沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4615</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4608</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008227</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4213</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4146</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010383</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3690</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.74</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3440</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3305</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3195</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.47</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2051</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1733</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005963</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>81.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1684</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009492</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1385</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010128</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>66.67</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011170</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>73.71</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009260</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>民生加银聚利6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005396</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中金丰硕混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>60.62</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001220</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>民生加银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>580003</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008228</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011171</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>73.71</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001816</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010129</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001734</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001735</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010384</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007579</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002164</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>159846</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>建信中证1000交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009261</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>民生加银聚利6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011240</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>66.67</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010670</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002920-德赛西威.xlsx
+++ b/数据整理/stocks/A股/深证主板/002920-德赛西威.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8535,7 +8536,6 @@
           <t>兴全合兴两年封闭运作混合（LOF）C</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
           <t>91.03</t>
@@ -8551,6 +8551,106 @@
       </c>
       <c r="H65" t="n">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>64</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>87</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.73</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002920-德赛西威.xlsx
+++ b/数据整理/stocks/A股/深证主板/002920-德赛西威.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8564,7 +8565,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8575,17 +8576,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8595,14 +8616,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>64</v>
-      </c>
-      <c r="D2" t="n">
-        <v>30.36</v>
+          <t>570001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺德价值优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5031</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -8611,14 +8654,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>87</v>
-      </c>
-      <c r="D3" t="n">
-        <v>30.13</v>
+          <t>010347</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银汇理策略收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>77.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.2740</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -8627,14 +8692,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>35</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.62</v>
+          <t>163418</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>78.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.7750</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -8643,13 +8730,4432 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>49.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.2559</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009491</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>58.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.9804</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>50.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.7213</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006751</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国互联科技股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>47.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.3898</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>39.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.1900</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009892</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国成长策略混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>41.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.9561</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001323</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3649</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>570008</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺德周期策略混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0764</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>30.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9640</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9525</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010286</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9141</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7683</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7598</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000924</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.86</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7520</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000698</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>宝盈科技30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.91</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7500</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6989</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6742</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001225</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中邮趋势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6370</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000996</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银新动力股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.42</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5664</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005962</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5537</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012150</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>诺德价值发现一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5511</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002482</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>宝盈互联网沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5191</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.16</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5095</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>17.17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4790</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4659</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4505</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001734</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>72.21</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4422</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001735</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>72.21</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4422</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4419</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008227</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4325</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4144</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010383</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3820</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3543</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010109</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国价值增长混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3374</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2981</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2888</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005963</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2830</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>16.31</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>35.71</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2659</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010128</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2482</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2435</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2318</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2260</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001048</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2181</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005481</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>银华瑞泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2026</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2011</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1832</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1829</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1803</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1645</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东吴新趋势价值线灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1557</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1553</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>62.54</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>159889</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国泰中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1481</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009492</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1475</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005396</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中金丰硕混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>65.97</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011170</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1326</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>580003</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>580002</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010447</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1234</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>900029</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中信证券量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009260</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>民生加银聚利6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>26.92</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1148</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>580001</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1121</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>217020</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>招商安达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>80.05</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001220</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>民生加银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008228</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010287</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001540</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>浙商汇金转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011126</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>富国互联科技股票C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010129</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011599</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>国联安匠心科技1个月滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009470</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>东方欣利混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>900030</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中信证券量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005826</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华夏潜龙精选股票</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011171</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>007579</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>000530</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010384</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>78.31</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>35.71</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>002417</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>009471</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>东方欣利混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010448</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>009261</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>民生加银聚利6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>26.92</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>002170</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010670</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>011241</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>011240</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>62.54</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>117</v>
+      </c>
+      <c r="D2" t="n">
+        <v>53.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>64</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>87</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>22</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>5.73</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002920-德赛西威.xlsx
+++ b/数据整理/stocks/A股/深证主板/002920-德赛西威.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13054,7 +13055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13065,17 +13066,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -13085,14 +13106,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>117</v>
-      </c>
-      <c r="D2" t="n">
-        <v>53.17</v>
+          <t>010347</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理策略收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6362</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -13101,14 +13144,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>64</v>
-      </c>
-      <c r="D3" t="n">
-        <v>30.36</v>
+          <t>570001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺德价值优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6337</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -13117,14 +13182,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>87</v>
-      </c>
-      <c r="D4" t="n">
-        <v>30.13</v>
+          <t>163418</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>78.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0342</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -13133,14 +13220,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>35</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13.62</v>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5790</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -13149,13 +13258,5438 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6798</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010286</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4919</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006751</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国互联科技股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>36.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4158</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0131</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9686</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009892</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国成长策略混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>30.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9568</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>570008</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺德周期策略混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9190</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8016</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7625</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012150</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺德价值发现一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7508</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013175</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7406</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000698</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈科技30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7376</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009491</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6960</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000924</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6729</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160325</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6683</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>28.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6391</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>74.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6252</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005962</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6183</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6086</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>22.21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5664</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5397</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5048</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>76.46</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5016</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>14.51</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4875</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002482</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>宝盈互联网沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4649</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4420</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010109</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国价值增长混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>13.41</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4157</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013176</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4147</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008227</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4026</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3812</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004745</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长盛创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>13.89</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3750</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3537</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010383</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3225</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000996</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中银新动力股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3164</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3034</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2850</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005963</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2787</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2750</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2483</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2459</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2446</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2227</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2213</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2018</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1927</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1882</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1878</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1806</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005481</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>银华瑞泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1742</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>74.69</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1725</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011126</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国互联科技股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1662</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1613</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010128</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1539</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010287</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1396</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1377</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>59.54</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>519158</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>新华趋势领航混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1347</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>东吴新趋势价值线灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1333</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>61.22</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1324</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010824</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>66.83</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1304</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1284</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005396</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中金丰硕混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>007586</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华泰保兴多策略三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011793</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>建信智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008228</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011170</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>580002</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>217020</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>招商安达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>80.47</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>54.15</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>900029</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中信证券量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>003831</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>建信鑫瑞回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>004183</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>富国产业升级混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001540</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>浙商汇金转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>013345</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>009986</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>73.39</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001323</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>159889</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>国泰中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>96.09</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>014135</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>67.44</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010944</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010129</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011599</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>国联安匠心科技1个月滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>013346</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>007579</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>012319</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011171</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>900030</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中信证券量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010825</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>007137</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>000530</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>001339</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>兴银鼎新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>005826</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华夏潜龙精选股票</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>012320</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>011839</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010384</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>广发中证全指可选消费ETF指数</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>96.38</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>007138</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>002170</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>011840</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>74.06</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>009987</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>73.39</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>517800</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>方正富邦中证沪港深人工智能50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>002417</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>014136</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>67.44</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>010945</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>005360</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>002768</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>25.67</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>011442</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>创金合信鑫瑞混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>011443</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>创金合信鑫瑞混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>59.54</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>010670</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>011241</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>144</v>
+      </c>
+      <c r="D2" t="n">
+        <v>45.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>117</v>
+      </c>
+      <c r="D3" t="n">
+        <v>53.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>64</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>87</v>
+      </c>
+      <c r="D5" t="n">
+        <v>30.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.62</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>22</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>5.73</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002920-德赛西威.xlsx
+++ b/数据整理/stocks/A股/深证主板/002920-德赛西威.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18572,7 +18573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18583,17 +18584,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -18603,14 +18624,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>144</v>
-      </c>
-      <c r="D2" t="n">
-        <v>45.59</v>
+          <t>010347</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理策略收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>61.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.7971</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -18619,14 +18662,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>117</v>
-      </c>
-      <c r="D3" t="n">
-        <v>53.17</v>
+          <t>570001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺德价值优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5993</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -18635,14 +18700,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>64</v>
-      </c>
-      <c r="D4" t="n">
-        <v>30.36</v>
+          <t>163418</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>71.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1583</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -18651,14 +18738,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>87</v>
-      </c>
-      <c r="D5" t="n">
-        <v>30.13</v>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7487</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -18667,14 +18776,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>35</v>
-      </c>
-      <c r="D6" t="n">
-        <v>13.62</v>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>45.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1274</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -18683,13 +18814,6438 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>006751</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国互联科技股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>43.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0003</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>58.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.9342</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8574</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010286</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6386</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009892</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国成长策略混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>34.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4563</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>63.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1955</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>570008</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺德周期策略混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1920</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>32.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9703</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9593</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013175</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9455</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9355</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000698</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>宝盈科技30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8592</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8435</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>77.73</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8369</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7887</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000924</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7866</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160325</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>29.74</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7792</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>95.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7750</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009491</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.32</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7614</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>74.27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7309</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001986</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源人工智能主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6954</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6415</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6402</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012150</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>诺德价值发现一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6376</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002482</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>宝盈互联网沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10.29</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5824</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5602</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011126</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国互联科技股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5361</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5280</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5264</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013176</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5236</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001210</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4977</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011450</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11.78</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4771</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010166</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商兴和优选1年持有期混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4653</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008227</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4128</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005962</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4084</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4004</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3888</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3744</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001048</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3436</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3401</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012556</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长盛景气优选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3385</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3368</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3357</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010383</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3338</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>015147</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏兴融灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3115</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>77.73</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3085</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012456</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3053</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2993</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004745</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长盛创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2940</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2873</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2752</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2440</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2355</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2264</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2188</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001313</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>上投摩根智慧互联股票</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2087</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005481</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>银华瑞泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2034</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2029</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1937</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>东吴新趋势价值线灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1924</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1879</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1876</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002031</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华夏策略混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>74.08</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1803</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009986</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005963</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1667</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009492</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1601</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1563</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1539</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010287</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1497</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>580001</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1480</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010824</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1396</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011793</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>建信智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1383</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>580002</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>580003</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1256</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>217020</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>招商安达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>80.37</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>000328</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>上投摩根转型动力混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>015074</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>上投摩根转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011170</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>72.33</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005729</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>南方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>004784</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>招商稳健优选股票</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010128</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001323</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>008228</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>004183</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>富国产业升级混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>013292</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010129</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001540</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>浙商汇金转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>98.17</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010944</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>159889</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>国泰中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>96.35</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011599</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>国联安匠心科技1个月滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>007579</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>012319</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>011171</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>000530</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>014695</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>长盛先进制造六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>30.62</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>010825</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>天弘创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>009987</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>005826</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>华夏潜龙精选股票</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>012457</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>008499</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>43.96</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>007137</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>014696</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>长盛先进制造六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>30.62</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>012320</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>519025</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>海富通领先成长混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>011451</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>010384</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>007138</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>011839</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>74.27</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>96.73</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>002170</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>517800</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>方正富邦中证沪港深人工智能50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>011840</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>002417</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>005088</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>008500</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>43.96</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>31.51</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>010945</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>014581</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>970073</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>015461</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>014931</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>72.33</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>970074</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>005089</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>013046</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>富国产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>011241</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>011240</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>010670</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>013044</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>015152</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>171</v>
+      </c>
+      <c r="D2" t="n">
+        <v>60.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>144</v>
+      </c>
+      <c r="D3" t="n">
+        <v>45.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>117</v>
+      </c>
+      <c r="D4" t="n">
+        <v>53.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>64</v>
+      </c>
+      <c r="D5" t="n">
+        <v>30.36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>87</v>
+      </c>
+      <c r="D6" t="n">
+        <v>30.13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13.62</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>22</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>5.73</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002920-德赛西威.xlsx
+++ b/数据整理/stocks/A股/深证主板/002920-德赛西威.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D2" t="n">
-        <v>60.2</v>
+        <v>46.36</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="D3" t="n">
-        <v>45.59</v>
+        <v>60.2</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="D4" t="n">
-        <v>53.17</v>
+        <v>45.59</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="D5" t="n">
-        <v>30.36</v>
+        <v>53.17</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D6" t="n">
-        <v>30.13</v>
+        <v>30.36</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="D7" t="n">
-        <v>13.62</v>
+        <v>30.13</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13.62</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>22</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>5.73</v>
       </c>
     </row>
@@ -600,6 +617,7033 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H185"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>570001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺德价值优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1122</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8370</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163418</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7648</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007887</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>54.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>48.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0283</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8535</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>55.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2141</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002011</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏红利混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>60.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0931</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010286</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0641</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>570008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺德周期策略混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0458</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006751</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国互联科技股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>30.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8941</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001761</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>25.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8760</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8706</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8347</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>016067</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8256</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7980</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7807</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010333</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>33.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7745</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7252</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>73.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7172</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000698</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>宝盈科技30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7030</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6520</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6305</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>13.25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5923</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5610</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011450</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商企业优选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5570</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010166</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商兴和优选1年持有期混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5399</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>910009</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5351</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001210</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5297</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012150</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>诺德价值发现一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4815</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4746</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009491</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4612</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000996</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中银新动力股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4553</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000924</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4183</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>160325</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4104</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>97.46</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4029</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011126</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国互联科技股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>13.54</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3994</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001712</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东方红优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3874</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002482</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>宝盈互联网沪港深混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3806</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3379</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3330</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3323</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3139</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>910007</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>48.05</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3079</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3072</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005962</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3025</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>77.19</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2877</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012556</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长盛景气优选混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2740</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011854</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>18.08</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2730</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2706</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>501080</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中金科创主题灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2690</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2562</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010383</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2475</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>501083</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>银华科创主题灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2294</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2052</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012706</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中银核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2002</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1968</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008227</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1934</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1893</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1867</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>460005</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1854</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002031</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华夏策略混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>61.73</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1711</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>东吴新趋势价值线灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1660</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>016068</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏华新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009986</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1577</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005481</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>银华瑞泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1549</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1517</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001220</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>民生加银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1511</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001313</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>上投摩根智慧互联股票A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1462</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1447</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>000939</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中银研究精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1370</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009877</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1366</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1321</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>217020</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>招商安达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1231</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010334</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1219</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005963</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>580002</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>009492</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010287</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>014376</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>东吴新能源汽车股票A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>70.11</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>012411</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>海富通成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>97.91</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>013292</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>012259</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>天弘鑫悦成长混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011853</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>013108</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华夏先进制造龙头混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>80.28</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001540</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>浙商汇金转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>012410</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>海富通成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010128</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>014560</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>东方汽车产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>013872</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>招商能源转型混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>013107</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华夏先进制造龙头混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>80.28</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001323</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>014561</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>东方汽车产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>013250</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>红土创新智能制造混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011506</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>建信高端装备股票A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>99.66</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010944</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>159889</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>国泰中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>97.21</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>008228</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>010129</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>013871</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>招商能源转型混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>011170</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>011599</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>国联安匠心科技1个月滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>010130</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>009987</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>159795</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>汇添富中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>159732</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>华夏国证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>000530</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>011171</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>012320</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>010945</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>011507</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>建信高端装备股票C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>007579</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>011451</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>招商企业优选混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010181</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>014377</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>东吴新能源汽车股票C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>53.72</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>广发中证全指可选消费ETF指数</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>010951</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>中金成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>006887</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>诺德新生活混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>519025</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>海富通领先成长混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>011840</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>001762</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>010384</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>012319</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>012258</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>天弘鑫悦成长混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>013869</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>创金合信物联网主题股票A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>73.82</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>517800</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>方正富邦中证沪港深AI50ETF</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>71.16</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>002547</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>民生加银养老服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>010182</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>005826</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>华夏潜龙精选股票</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>013532</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>013870</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>创金合信物联网主题股票C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>002417</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>003697</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>华夏睿磐泰盛混合</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>005088</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>70.58</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>015461</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>81.12</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>81.12</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>012707</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>中银核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>001864</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>中海魅力长三角灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>50.05</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>011839</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>002170</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>60.22</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>010131</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>002640</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>37.60</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>010952</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>中金成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>014581</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>012264</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>中银研究精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>012600</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>010037</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>006843</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>37.60</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>005089</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>70.58</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>011241</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>014931</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>70.11</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H179" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>014453</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>中银新动力股票C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>013044</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>010443</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有混合B</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
+      <c r="H182" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>016919</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>上投摩根智慧互联股票C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>010670</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>006888</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>诺德新生活混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7138,7 +14182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12655,7 +19699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17144,7 +24188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19621,7 +26665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -22976,7 +30020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24362,7 +31406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002920-德赛西威.xlsx
+++ b/数据整理/stocks/A股/深证主板/002920-德赛西威.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>184</v>
+        <v>103</v>
       </c>
       <c r="D2" t="n">
-        <v>46.36</v>
+        <v>19.66</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D3" t="n">
-        <v>60.2</v>
+        <v>46.36</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="D4" t="n">
-        <v>45.59</v>
+        <v>60.2</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="D5" t="n">
-        <v>53.17</v>
+        <v>45.59</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="D6" t="n">
-        <v>30.36</v>
+        <v>53.17</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D7" t="n">
-        <v>30.13</v>
+        <v>30.36</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="D8" t="n">
-        <v>13.62</v>
+        <v>30.13</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,922 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>35</v>
+      </c>
+      <c r="D9" t="n">
+        <v>13.62</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>22</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>5.73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005962</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2534</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2390</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6742</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3932</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2346</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005963</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1792</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1198</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1198</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>040015</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安动态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>202019</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方策略优化混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001573</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方互联网+灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001781</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信现代服务业股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1526,3968 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H104"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007128</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘增强回报债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0153</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007129</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘增强回报债券C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9527</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3447</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005368</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0246</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010286</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9343</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>570008</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺德周期策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9123</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7154</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5665</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4587</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4396</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010166</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商兴和优选1年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4291</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011820</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴业兴智一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4196</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011450</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商企业优选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4119</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4118</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4054</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3548</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3308</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515250</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3291</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3286</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160325</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3126</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.79</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2884</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501080</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中金科创主题灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2723</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2635</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2542</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2134</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011821</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴业兴智一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2117</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1885</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1859</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1832</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009735</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天弘增强回报债券E</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1707</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010956</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1691</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1674</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>016590</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国汽车智选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>49.95</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009539</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>兴业睿进混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.53</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1527</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东吴新趋势价值线灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1373</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1363</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002031</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏策略混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>73.32</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>580002</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>99.79</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>59.45</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010287</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013292</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国中证智能汽车指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>217020</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商安达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014376</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东吴新能源汽车股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008671</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>银华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>516520</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004183</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>159889</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国泰中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159888</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华夏中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>015228</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏创新研选混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001323</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010955</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>天弘中证智能汽车主题指数A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010944</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>159795</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇添富中证智能汽车主题ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001682</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>新华鑫回报混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>30.25</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000530</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010951</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中金成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010945</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>016238</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华夏数字经济龙头混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012320</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>014377</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>东吴新能源汽车股票C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011545</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011451</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>招商企业优选混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>015227</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华夏创新研选混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010181</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>016237</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华夏数字经济龙头混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012319</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011840</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>013869</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>创金合信物联网主题股票A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>016591</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>富国汽车智选混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>49.95</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>003697</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华夏睿磐泰盛混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>28.62</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011254</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005088</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010182</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>013870</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>创金合信物联网主题股票C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002417</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>013046</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>富国产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011546</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009540</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>兴业睿进混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>83.53</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011839</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>天弘中证人工智能指数A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>002170</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010952</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中金成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>011255</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>005089</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>014745</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>恒生前海兴享混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>014744</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>恒生前海兴享混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>013044</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>011241</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7643,7 +12514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14182,7 +19053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19699,7 +24570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24188,7 +29059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26665,7 +31536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -30020,7 +34891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -31404,896 +36275,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005962</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>宝盈人工智能主题股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>54.96</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.43</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.2534</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>163411</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>兴全精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>55.56</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.41</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.2390</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>550002</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>信诚精萃成长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>19.83</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.24</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6742</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>530001</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>建信恒久价值混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12.25</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3932</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>550001</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>信诚四季红混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.11</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.26</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2346</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005963</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>宝盈人工智能主题股票C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.43</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1792</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000826</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发中证百度百发策略100指数A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1198</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000827</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>广发中证百度百发策略100指数E</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1198</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>160425</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华安创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.87</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1182</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>040015</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华安动态灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>79.58</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1063</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006209</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中信保诚新蓝筹灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>89.57</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0983</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>202019</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>南方策略优化混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0920</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001573</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>南方互联网+灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>87.89</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0335</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005413</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>金信民长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>81.07</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>9.14</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0192</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001795</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>上投摩根文体休闲灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>78.29</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0187</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001781</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>建信现代服务业股票</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0125</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>590007</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中邮中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0068</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002564</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>新沃通盈灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.73</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0053</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005607</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华宝中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005608</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>华宝中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005412</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>金信民长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>81.07</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>9.14</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>008124</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中邮中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>